--- a/medicine/Enfance/Mélusine_Vaglio/Mélusine_Vaglio.xlsx
+++ b/medicine/Enfance/Mélusine_Vaglio/Mélusine_Vaglio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9lusine_Vaglio</t>
+          <t>Mélusine_Vaglio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mélusine Vaglio, née en 1971[1] à Arras, est une auteure française de thrillers ésotériques. Elle est notamment la créatrice de la série fantastique Kitty Lord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mélusine Vaglio, née en 1971 à Arras, est une auteure française de thrillers ésotériques. Elle est notamment la créatrice de la série fantastique Kitty Lord.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9lusine_Vaglio</t>
+          <t>Mélusine_Vaglio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mélusine Vaglio, agrégée de Lettres modernes, a créé le personnage de Kitty Lord, une orpheline aux pouvoirs paranormaux, en reprenant un mythe : celui des Nephilim. Ces créatures qui seraient issues de l’union illicite des Anges et des Terriennes à l’époque de Noé, sont de retour parmi nous.
 Kitty Lord et les Gardiens de l'Alliance, le troisième tome de la série, a reçu le Prix Bel-Ami Jeunesse en 2007.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9lusine_Vaglio</t>
+          <t>Mélusine_Vaglio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,16 +562,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kitty Lord et le Secret des Néphilim
-Publication : Hachette, 2005.
+          <t>Kitty Lord et le Secret des Néphilim</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Publication : Hachette, 2005.
 Résumé
 Kitty Lord, une jeune orpheline de 11 ans, apporte le scandale dans Peabody, petite ville du Kansas. Les habitants la soupçonnent d’être à l’origine de la mystérieuse pluie de pierres qui s’est abattue sur la cour de récréation de son collège.
 La presse locale s’intéresse de près à cette adolescente étrange capable de déclencher des poltergeists sous l’effet de la colère. La rumeur enfle et les curieux affluent dans la ville. Peu après, Kitty est kidnappée brutalement sur le chemin de l’école. La police ne dispose d’aucun indice pour la retrouver.
 À son réveil, Kitty se retrouve prisonnière du Centre Genesis, un laboratoire secret de recherches sur le génome humain, transformé en un bunker inviolable. Hécate, une femme dangereuse, l’oblige à participer à une compétition impitoyable opposant les Alphas — adolescents violents et meurtriers — aux Omégas — enfants sensibles dotés de pouvoirs. La pression est énorme, car un seul d’entre eux doit survivre aux épreuves.
 Le décès d’une concurrente va amener Kitty à tisser des liens avec les Omégas pour lutter contre la terreur. Guidée par l’instinct de survie, elle développe ses pouvoirs paranormaux et au cours d’une expérience de sortie hors de son corps, Markthus Gornic, le PDG du Centre et Drake Vicious, un des Alphas, lui révèlent qu’elle n’est pas humaine ! Tout comme eux, elle est une mutante : plus exactement une Néphilim, dont parle la Bible au chapitre 6 de la Genèse.
 Abasourdie, Kitty hésite sur ce qu’elle doit faire : rallier les Néphilim, des êtres beaux et puissants mais uniquement soucieux de dominer les humains ? Ou s’échapper du Centre avec l’aide des Omégas en évitant les Chasseurs, les sbires d’Hécate, et les patrouilles de Sentinelles, des robots tueurs ? Comment ensuite contacter des journalistes et les convaincre sans preuve que des enfants ont été enlevés pour être soumis aux pires tortures sous prétexte de recherches scientifiques ?
-Kitty Lord et l'Anneau Ourovore
-Publication : Hachette, 2006.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mélusine_Vaglio</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lusine_Vaglio</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kitty Lord et l'Anneau Ourovore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Publication : Hachette, 2006.
 Liens externes :
 « Fiche et critique » sur le site NooSFere
 Sur Babelio
@@ -571,8 +625,43 @@
 Lors de la Grande Conjonction, les Néphilim élisent le « Rébis », le Néphilim suprême à l’origine du mythe de l’hermaphrodite ailé mentionné dans les grimoires alchimiques. Kitty et Drake doivent s’affronter dans un combat surnaturel où le vainqueur s’emparera de l’énergie vitale de son adversaire, ce qui lui permettra de contrôler les éléments et de devenir invincible. Kitty va enfin comprendre à quoi servent les fentes qu’elle a sur les omoplates depuis sa naissance.
 Kitty parvient à s’échapper et trouve refuge chez les Indiens. Identifiée par les Hopis comme l’Enfant-Bouclier-Du-Monde annoncée dans leurs prophéties, Kitty est initiée par une chamane qui lui révèle une part de son Chemin de Vie.
 Va-t-elle se décider à rejoindre le camp des Néphilim, ces frères de sang, en mémoire de son père Ronovee Lord qui fut un Néphilim d’exception ?
-Kitty Lord et les Gardiens de l'Alliance
-Publication : Hachette, 2007.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mélusine_Vaglio</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lusine_Vaglio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kitty Lord et les Gardiens de l'Alliance</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Publication : Hachette, 2007.
 Résumé
 L’agent du FBI Gwen Garber, spécialiste des disparitions d’enfants, vient enquêter à Peabody pour élucider le mystère d’un enfant inconnu qui a été retrouvé privé de ses globes oculaires. Tout en menant ses investigations qui la mettent sur la piste d’un gigantesque trafic d’organes d’enfants organisé par une femme Néphilim très médiatisée, Xaphany Végas, elle enquête sur Kitty.
 Toutes deux rencontrent le père Maxellende, celui qui a placé Kitty à l’institut Belmont à l’âge de cinq ans : il prétend qu’elle est le 666, le chiffre de la Bête annoncée dans l’Apocalypse ! 
@@ -581,16 +670,120 @@
 Kitty fait alors une NDE, une expérience au bord de la mort, au cours de laquelle elle découvre le secret des trois petits points bleus qu’elle est seule à voir depuis des années. Quand elle revient de l’au-delà, elle porte un symbole mystérieux sur son bras : le sceau magique de Salomon. Devant un tel prodige, les Gardiens reconnaissent leur erreur et conviennent qu’elle est une Zaddikim. Les Zaddikim appartiennent à une lignée de Néphilim différente, parce que ce sont des Justes.
 Alors que les signes d’un Nouvel Ordre du Monde se multiplient, les Gardiens veulent freiner la progression des Néphilim, qui sont parvenus à réunir les anciennes tribus oubliées : les Emim, les Réphaim, les Gibborim, les Anakim et les Zamzumim. Ils persuadent Kitty de s’inoculer un virus mortel pour anéantir Drake par contagion lors d’une Grande Conjonction. La présence du Rébis est une condition du règne des Néphilim.
 Kitty va-t-elle parvenir à sauver le monde de la répression en tuant Drake et en se sacrifiant elle-même ? Ses amis Omégas pourront-ils lui venir en aide et arrêter les Néphilim ?
-Kitty Lord et l’Arcane Cosmique
-Publication : Hachette, 2008.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mélusine_Vaglio</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lusine_Vaglio</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kitty Lord et l’Arcane Cosmique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Publication : Hachette, 2008.
 Résumé
 Un objet non identifié s’écrase au Kansas et Gwen Garber contacte Kitty pour qu’elle l’accompagne d’urgence au Nouveau-Mexique. L’armée aurait capturé un extraterrestre vivant ! Kitty pense immédiatement à un canular orchestré par les Néphilim. À leur arrivée, le général de la base militaire est désespéré : l’ET s’est volatilisé.
 Kitty vit une aventure extraordinaire : enlevée à bord d’un ovni, elle découvre l’existence de créatures magnifiques, les Elohim - les Seigneuries Divines - qui lui enseignent l’importance de l’amour. Elle apprend aussi que des Archidémons redoutables, issus de la première rébellion, veulent conquérir la Terre pour se venger. Les Elohim laissent à Kitty un Globus Mundi, sorte de Livre Monde censé lever l’énigme sur la Supraconscience qui a créé l’univers.
 Kitty devra affronter les agents de Majestic 12 qui veulent garder le secret sur l’existence des extraterrestres, et les Fils de Jared, qui depuis l’époque de Saint Augustin, conspirent pour cacher l’existence historique des Néphilim. Devant ces deux adversaires, Kitty se retrouve face à elle-même. Après avoir perdu deux êtres chers, elle devra pourtant affronter le nouveau danger qui guette l’humanité : une invasion des démons libérés de leur prison située dans une dimension parallèle. Kitty saura convaincre John Dickmoy et Gwen Garber de la rejoindre dans son combat.
-Néphilim, l'autre histoire du Mal
-Publication : Armand Colin, mai 2010.
-BI, Les femmes qui aiment les hommes... et les femmes
-Publication : Elith Editions, juin 2017.</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mélusine_Vaglio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lusine_Vaglio</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Néphilim, l'autre histoire du Mal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Publication : Armand Colin, mai 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mélusine_Vaglio</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lusine_Vaglio</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BI, Les femmes qui aiment les hommes... et les femmes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Publication : Elith Editions, juin 2017.</t>
         </is>
       </c>
     </row>
